--- a/Alle-lister-vg1-vg2-TeknDok-QA-raw.xlsx
+++ b/Alle-lister-vg1-vg2-TeknDok-QA-raw.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno.sharepoint.com/sites/kub-gr-im/Delte dokumenter/General/Arbeidsgrupper/Drift/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simen\git_stuff\barcode-scanning-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E108D085-9F21-4730-9F11-2409B0B73DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46D7CB-0102-4B73-956C-F06FB49A13EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3922DF28-9A25-4B98-B16A-DABF7731F223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3922DF28-9A25-4B98-B16A-DABF7731F223}"/>
   </bookViews>
   <sheets>
     <sheet name="alle-TekniskDok-16juni2022" sheetId="1" r:id="rId1"/>
     <sheet name="vg1-MAC-TekniskDok" sheetId="2" r:id="rId2"/>
     <sheet name="vg1-QA-alle" sheetId="3" r:id="rId3"/>
+    <sheet name="data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_56F9DC9755BA473782653E2940F9FormId">"aGOmpZ7U9UuvmmzL9I5mVcm6Q_9_VONCh0fYBqR0zXRUMUNJUUJOWVpKNEI4UUkwNlVYRk1QNVFXOS4u"</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="753">
   <si>
     <t>adnea002@osloskolen.no</t>
   </si>
@@ -2370,8 +2371,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Overskrift 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -2485,7 +2486,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2783,27 +2784,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36724E28-A9C0-4F1F-A81D-49D10D42984F}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>535</v>
       </c>
@@ -2845,7 +2846,7 @@
       </c>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>116</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>117</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>118</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>119</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>120</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>121</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>122</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>123</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>124</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>125</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>126</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>127</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>128</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>129</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>130</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>131</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>132</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>133</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>134</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>135</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>136</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>137</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>138</v>
       </c>
@@ -3788,7 +3789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>139</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>140</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>141</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>142</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>143</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>144</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>145</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>146</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>147</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>148</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>149</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>150</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>151</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>152</v>
       </c>
@@ -4362,7 +4363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>153</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>154</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>155</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>156</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>157</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>158</v>
       </c>
@@ -4608,7 +4609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>159</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>160</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>161</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>162</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>163</v>
       </c>
@@ -4813,7 +4814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>164</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>165</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>166</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>167</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>168</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>169</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>170</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>171</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>172</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>173</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>174</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>175</v>
       </c>
@@ -5305,7 +5306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>176</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>177</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>178</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>179</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>180</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>181</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>182</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>183</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>184</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>185</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>186</v>
       </c>
@@ -5756,7 +5757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>187</v>
       </c>
@@ -5797,7 +5798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>188</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>189</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>190</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>191</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>192</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>193</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>194</v>
       </c>
@@ -6094,23 +6095,23 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>535</v>
       </c>
@@ -6140,7 +6141,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>117</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>118</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>119</v>
       </c>
@@ -6227,7 +6228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>120</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>121</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>122</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>123</v>
       </c>
@@ -6343,7 +6344,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>124</v>
       </c>
@@ -6372,7 +6373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>125</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>126</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>127</v>
       </c>
@@ -6459,7 +6460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>128</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>129</v>
       </c>
@@ -6517,7 +6518,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>130</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>132</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>133</v>
       </c>
@@ -6604,7 +6605,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>134</v>
       </c>
@@ -6633,7 +6634,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>135</v>
       </c>
@@ -6662,7 +6663,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>136</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>137</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>138</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>139</v>
       </c>
@@ -6778,7 +6779,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>140</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>142</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>143</v>
       </c>
@@ -6865,7 +6866,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>144</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>145</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>146</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>147</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>148</v>
       </c>
@@ -7010,7 +7011,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>149</v>
       </c>
@@ -7039,7 +7040,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>150</v>
       </c>
@@ -7068,7 +7069,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>152</v>
       </c>
@@ -7097,7 +7098,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>157</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>158</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>159</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>160</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>161</v>
       </c>
@@ -7242,7 +7243,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>162</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>163</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>164</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>165</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>166</v>
       </c>
@@ -7387,7 +7388,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>167</v>
       </c>
@@ -7416,7 +7417,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>168</v>
       </c>
@@ -7445,7 +7446,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>169</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>170</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>171</v>
       </c>
@@ -7532,7 +7533,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>172</v>
       </c>
@@ -7561,7 +7562,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>173</v>
       </c>
@@ -7590,7 +7591,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>174</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>175</v>
       </c>
@@ -7648,7 +7649,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>176</v>
       </c>
@@ -7677,7 +7678,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>177</v>
       </c>
@@ -7706,7 +7707,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>178</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>179</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>180</v>
       </c>
@@ -7793,7 +7794,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>181</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>182</v>
       </c>
@@ -7851,7 +7852,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>183</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>184</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>185</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>186</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>187</v>
       </c>
@@ -7996,7 +7997,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>188</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>189</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>192</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>193</v>
       </c>
@@ -8112,7 +8113,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>194</v>
       </c>
@@ -8157,12 +8158,12 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="22" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>535</v>
       </c>
@@ -8230,7 +8231,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8289,7 +8290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8357,7 +8358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8558,7 +8559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8824,7 +8825,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9022,7 +9023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9090,7 +9091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9217,7 +9218,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9285,7 +9286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9350,7 +9351,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9418,7 +9419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9480,7 +9481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9610,7 +9611,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9675,7 +9676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9743,7 +9744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9808,7 +9809,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9876,7 +9877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9944,7 +9945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10006,7 +10007,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10074,7 +10075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10201,7 +10202,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10263,7 +10264,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10331,7 +10332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10464,7 +10465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10529,7 +10530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10662,7 +10663,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10730,7 +10731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10798,7 +10799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10866,7 +10867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10931,7 +10932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10999,7 +11000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11067,7 +11068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11132,7 +11133,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11268,7 +11269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11330,7 +11331,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11392,7 +11393,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11460,7 +11461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11528,7 +11529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11593,7 +11594,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11658,7 +11659,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11723,7 +11724,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11788,7 +11789,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11856,7 +11857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11924,7 +11925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11998,7 +11999,1662 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB689BD7-0747-4445-AF70-DF1FC5EBB8D5}">
+  <dimension ref="A1:J70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>147</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>149</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>163</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>164</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>165</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>170</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>171</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>175</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>177</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>178</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>179</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>180</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>187</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>188</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>189</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>193</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>194</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27cd06e8-8e2b-4eab-b578-6ee18ff152a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9a8bd0c8-94c0-4e76-bd03-7e285dab928e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010098182F6F8F0480498DE7DAD114A278E5" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b011fafe883715288023ac08d845357e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="27cd06e8-8e2b-4eab-b578-6ee18ff152a4" xmlns:ns3="9a8bd0c8-94c0-4e76-bd03-7e285dab928e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30c6d464f01746b7ae0410502bafdadd" ns2:_="" ns3:_="">
     <xsd:import namespace="27cd06e8-8e2b-4eab-b578-6ee18ff152a4"/>
@@ -12241,39 +13897,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27cd06e8-8e2b-4eab-b578-6ee18ff152a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9a8bd0c8-94c0-4e76-bd03-7e285dab928e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5597758A-BC3E-448B-A6CA-0AF1E79AED31}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55386571-23AE-4ADC-961D-3E2944DF0224}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B18E8484-2246-4179-A6E6-2B2795A43ECB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12288,4 +13912,31 @@
     <ds:schemaRef ds:uri="9a8bd0c8-94c0-4e76-bd03-7e285dab928e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55386571-23AE-4ADC-961D-3E2944DF0224}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5597758A-BC3E-448B-A6CA-0AF1E79AED31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="27cd06e8-8e2b-4eab-b578-6ee18ff152a4"/>
+    <ds:schemaRef ds:uri="9a8bd0c8-94c0-4e76-bd03-7e285dab928e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Alle-lister-vg1-vg2-TeknDok-QA-raw.xlsx
+++ b/Alle-lister-vg1-vg2-TeknDok-QA-raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simen\git_stuff\barcode-scanning-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46D7CB-0102-4B73-956C-F06FB49A13EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAB925F-11E3-4DA8-AC8F-4E2736B62E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3922DF28-9A25-4B98-B16A-DABF7731F223}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="761">
   <si>
     <t>adnea002@osloskolen.no</t>
   </si>
@@ -2307,6 +2307,30 @@
   </si>
   <si>
     <t>Har Ikke</t>
+  </si>
+  <si>
+    <t>Ingen ID Lånte den fra Lars.</t>
+  </si>
+  <si>
+    <t>LA-74  PC-74 (tror jeg)</t>
+  </si>
+  <si>
+    <t>LA-PWR-74  PC-PWR-74 (tro jeg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SERIENUMMER (S/N) på PC</t>
+  </si>
+  <si>
+    <t>ID-nr PC gml</t>
+  </si>
+  <si>
+    <t>WiFi MAC-adr (IPv4)</t>
+  </si>
+  <si>
+    <t>Ethernet MAC-adr </t>
   </si>
 </sst>
 </file>
@@ -6095,7 +6119,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12001,10 +12025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB689BD7-0747-4445-AF70-DF1FC5EBB8D5}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12018,7 +12042,7 @@
     <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>535</v>
       </c>
@@ -12026,23 +12050,22 @@
         <v>550</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>548</v>
+        <v>758</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>549</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>543</v>
+        <v>757</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>552</v>
+        <v>759</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>117</v>
       </c>
@@ -12065,7 +12088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>118</v>
       </c>
@@ -12088,7 +12111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>119</v>
       </c>
@@ -12111,7 +12134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>120</v>
       </c>
@@ -12122,7 +12145,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>36</v>
@@ -12134,7 +12157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>121</v>
       </c>
@@ -12157,7 +12180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>122</v>
       </c>
@@ -12180,7 +12203,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>123</v>
       </c>
@@ -12203,7 +12226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>124</v>
       </c>
@@ -12226,7 +12249,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>125</v>
       </c>
@@ -12249,7 +12272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>126</v>
       </c>
@@ -12272,7 +12295,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>127</v>
       </c>
@@ -12295,7 +12318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>128</v>
       </c>
@@ -12318,7 +12341,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>129</v>
       </c>
@@ -12341,7 +12364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>130</v>
       </c>
@@ -12364,7 +12387,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>132</v>
       </c>
@@ -12556,10 +12579,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>169</v>
+        <v>754</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>170</v>
+        <v>755</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>171</v>
@@ -13364,7 +13387,7 @@
         <v>34</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>445</v>
+        <v>756</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>446</v>
@@ -13631,6 +13654,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13646,15 +13670,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010098182F6F8F0480498DE7DAD114A278E5" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b011fafe883715288023ac08d845357e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="27cd06e8-8e2b-4eab-b578-6ee18ff152a4" xmlns:ns3="9a8bd0c8-94c0-4e76-bd03-7e285dab928e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30c6d464f01746b7ae0410502bafdadd" ns2:_="" ns3:_="">
     <xsd:import namespace="27cd06e8-8e2b-4eab-b578-6ee18ff152a4"/>
@@ -13897,6 +13912,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B18E8484-2246-4179-A6E6-2B2795A43ECB}">
   <ds:schemaRefs>
@@ -13915,14 +13939,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55386571-23AE-4ADC-961D-3E2944DF0224}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5597758A-BC3E-448B-A6CA-0AF1E79AED31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13939,4 +13955,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55386571-23AE-4ADC-961D-3E2944DF0224}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>